--- a/Automation/InputfFile/ADMIN.xlsx
+++ b/Automation/InputfFile/ADMIN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ADMINOBJREPO!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ADMINREG!$A$1:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ADMINREG!$A$1:$G$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DUDE!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="149">
   <si>
     <t>AliasName</t>
   </si>
@@ -449,14 +449,32 @@
     <t>#searchSystemUser_userName</t>
   </si>
   <si>
-    <t>#searchBtnSSSSSSSSSSSSSS</t>
+    <t>#searchBtn</t>
+  </si>
+  <si>
+    <t>#resultTable &gt; thead &gt; tr &gt; th &gt; a</t>
+  </si>
+  <si>
+    <t>SystemUserList</t>
+  </si>
+  <si>
+    <t>Search Colum Name</t>
+  </si>
+  <si>
+    <t>cssSelectorAll</t>
+  </si>
+  <si>
+    <t>VERFYCOLUMN</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -676,11 +694,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -719,81 +759,19 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1379,7 +1357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1414,7 +1391,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1590,22 +1566,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -1619,7 +1595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="37" t="s">
         <v>126</v>
       </c>
@@ -1633,7 +1609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="37" t="s">
         <v>126</v>
       </c>
@@ -1647,7 +1623,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="37" t="s">
         <v>126</v>
       </c>
@@ -1661,7 +1637,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="26" t="s">
         <v>123</v>
       </c>
@@ -1675,7 +1651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="26" t="s">
         <v>123</v>
       </c>
@@ -1689,7 +1665,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
@@ -1703,7 +1679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="26" t="s">
         <v>124</v>
       </c>
@@ -1717,7 +1693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="26" t="s">
         <v>124</v>
       </c>
@@ -1731,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="26" t="s">
         <v>124</v>
       </c>
@@ -1745,7 +1721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="26" t="s">
         <v>124</v>
       </c>
@@ -1759,7 +1735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="26" t="s">
         <v>124</v>
       </c>
@@ -1773,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="26" t="s">
         <v>124</v>
       </c>
@@ -1787,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -1801,7 +1777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="26" t="s">
         <v>124</v>
       </c>
@@ -1815,7 +1791,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="26" t="s">
         <v>124</v>
       </c>
@@ -1829,7 +1805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="26" t="s">
         <v>124</v>
       </c>
@@ -1843,7 +1819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="26" t="s">
         <v>124</v>
       </c>
@@ -1857,7 +1833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="26" t="s">
         <v>124</v>
       </c>
@@ -1871,7 +1847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="26" t="s">
         <v>124</v>
       </c>
@@ -1885,7 +1861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="26" t="s">
         <v>124</v>
       </c>
@@ -1899,7 +1875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="26" t="s">
         <v>124</v>
       </c>
@@ -1913,7 +1889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="26" t="s">
         <v>124</v>
       </c>
@@ -1927,7 +1903,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="26" t="s">
         <v>124</v>
       </c>
@@ -1941,7 +1917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="26" t="s">
         <v>124</v>
       </c>
@@ -1955,7 +1931,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="26" t="s">
         <v>124</v>
       </c>
@@ -1969,7 +1945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="26" t="s">
         <v>124</v>
       </c>
@@ -1983,7 +1959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="26" t="s">
         <v>124</v>
       </c>
@@ -1997,7 +1973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="26" t="s">
         <v>124</v>
       </c>
@@ -2011,7 +1987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="26" t="s">
         <v>124</v>
       </c>
@@ -2023,12 +1999,26 @@
       </c>
       <c r="D30" s="26" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C31">
       <formula1>" ,cssSelector,xpath,className,id,linkText,partialLinkText,name,tagName"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2038,26 +2028,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>127</v>
       </c>
@@ -2080,7 +2071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2095,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>30</v>
       </c>
@@ -2128,7 +2119,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -2153,7 +2144,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="25" t="s">
         <v>70</v>
       </c>
@@ -2178,7 +2169,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="25" t="s">
         <v>58</v>
       </c>
@@ -2203,7 +2194,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="25" t="s">
         <v>56</v>
       </c>
@@ -2228,7 +2219,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="28" t="s">
         <v>57</v>
       </c>
@@ -2253,7 +2244,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="20" t="s">
         <v>30</v>
       </c>
@@ -2277,20 +2268,20 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="23" t="str">
@@ -2302,477 +2293,484 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="34" t="str">
-        <f t="shared" ref="F11:F13" si="2">$F$2</f>
+      <c r="E11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f t="shared" ref="F11:F21" si="2">$F$2</f>
         <v>Y</v>
       </c>
-      <c r="G11" s="32" t="str">
+      <c r="G11" s="23" t="str">
         <f>$G$2</f>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="25" t="str">
+      <c r="D12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="G12" s="25" t="str">
-        <f t="shared" ref="G12:G25" si="3">$G$2</f>
-        <v>Admin Module</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="G12" s="23" t="str">
+        <f t="shared" ref="G12:G26" si="3">$G$2</f>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="33" t="str">
+      <c r="E13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="G13" s="32" t="str">
+      <c r="G13" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="25" t="str">
+      <c r="E14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G14" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="32" t="str">
+      <c r="E15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G15" s="23" t="str">
         <f>$G$2</f>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="25" t="str">
+      <c r="E16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G16" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="25" t="str">
+      <c r="E17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G17" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="25" t="str">
+      <c r="E18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G18" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="25" t="str">
+      <c r="D19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G19" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G20" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="25" t="str">
+      <c r="E21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="G21" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>Admin Module</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="25" t="str">
+      <c r="G22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="27" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="G23" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="23" t="str">
         <f>$G$2</f>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C25" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="34" t="str">
-        <f t="shared" ref="F24" si="4">$F$2</f>
+      <c r="E25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f t="shared" ref="F25" si="4">$F$2</f>
         <v>Y</v>
       </c>
-      <c r="G24" s="32" t="str">
+      <c r="G25" s="23" t="str">
         <f>$G$2</f>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="str">
+    <row r="26" spans="1:7">
+      <c r="A26" s="35" t="str">
         <f>A2</f>
         <v>Admin Module</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B26" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D26" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="35" t="str">
+      <c r="E26" s="35" t="str">
         <f>E2</f>
         <v>Administrator</v>
       </c>
-      <c r="F25" s="35" t="str">
-        <f t="shared" ref="F25" si="5">$F$2</f>
+      <c r="F26" s="35" t="str">
+        <f t="shared" ref="F26" si="5">$F$2</f>
         <v>Y</v>
       </c>
-      <c r="G25" s="35" t="str">
+      <c r="G26" s="35" t="str">
         <f t="shared" si="3"/>
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="18" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="18" t="str">
-        <f>A26</f>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="G27" s="18" t="str">
+        <f>A27</f>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="22" t="str">
-        <f>$G$26</f>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="G28" s="21" t="str">
+        <f>$G$27</f>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="23" t="str">
-        <f>$F$26</f>
+      <c r="E29" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="26" t="str">
+        <f t="shared" ref="F29:F50" si="6">$F$27</f>
         <v>N</v>
       </c>
-      <c r="G28" s="23" t="str">
-        <f>$G$26</f>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="G29" s="26" t="str">
+        <f t="shared" ref="G29:G50" si="7">$G$27</f>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="25" t="str">
-        <f t="shared" ref="F29:F32" si="6">$F$26</f>
-        <v>N</v>
-      </c>
-      <c r="G29" s="25" t="str">
-        <f t="shared" ref="G29:G32" si="7">$G$26</f>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>49</v>
@@ -2780,825 +2778,608 @@
       <c r="D30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="25" t="str">
+      <c r="E30" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="26" t="str">
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G30" s="25" t="str">
+      <c r="G30" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="25" t="str">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="26" t="str">
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G31" s="25" t="str">
+      <c r="G31" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="28" t="str">
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="26" t="str">
         <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G32" s="28" t="str">
+      <c r="G32" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G33" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="22" t="str">
-        <f>$G$26</f>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="23" t="str">
-        <f t="shared" ref="F34:F58" si="8">$F$26</f>
+      <c r="G34" s="21" t="str">
+        <f>$G$27</f>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G34" s="23" t="str">
-        <f t="shared" ref="G34:G58" si="9">$G$26</f>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="G35" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="D36" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G35" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="D37" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G37" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="25" t="s">
+      <c r="G37" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G38" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G39" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G40" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G41" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G42" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G43" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="C44" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G38" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="25" t="s">
+      <c r="G44" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="G45" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="C46" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G39" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="25" t="s">
+      <c r="G46" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="C47" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G40" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="G47" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B48" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="C48" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G41" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="25" t="s">
+      <c r="G48" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="C49" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="41" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G42" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="G49" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="35" t="str">
+        <f>A27</f>
+        <v>Admin Module</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="35" t="str">
+        <f>E27</f>
+        <v>Administrator</v>
+      </c>
+      <c r="F50" s="35" t="str">
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
-      <c r="G43" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G44" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G45" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G46" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G47" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G48" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G49" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G50" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G51" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G52" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G53" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G54" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G55" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G56" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G57" s="25" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="35" t="str">
-        <f>A26</f>
-        <v>Admin Module Add New User</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="35" t="str">
-        <f>E26</f>
-        <v>Administrator</v>
-      </c>
-      <c r="F58" s="35" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="G58" s="35" t="str">
-        <f t="shared" si="9"/>
-        <v>Admin Module Add New User</v>
-      </c>
-    </row>
+      <c r="G50" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v>Admin Module</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G58"/>
+  <autoFilter ref="A1:G50">
+    <filterColumn colId="6"/>
+  </autoFilter>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="duplicateValues" dxfId="55" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="54" priority="72"/>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="duplicateValues" dxfId="47" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="46" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="53" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="52" priority="76"/>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="51" priority="56"/>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="43" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39">
-    <cfRule type="duplicateValues" dxfId="50" priority="42"/>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="duplicateValues" dxfId="42" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C32">
-    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="duplicateValues" dxfId="41" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="39" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C33">
+    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="duplicateValues" dxfId="48" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="duplicateValues" dxfId="47" priority="37"/>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="46" priority="33"/>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="45" priority="31"/>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="duplicateValues" dxfId="44" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="43" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="duplicateValues" dxfId="42" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="duplicateValues" dxfId="41" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C48">
-    <cfRule type="duplicateValues" dxfId="40" priority="23"/>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="39" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="36" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D8:E8 D12 D5 D21:E23 D37:E39 D10 D41:E41 E43 D43:D45 D40:G40 D46:E46 D47:D49 E49 D50:E55 E57 D28:E35 G21 E4:E7 E10:E18 G19 D19:E20" numberStoredAsText="1"/>
+    <ignoredError sqref="D8:E8 D12 D5 D10 G22 E4:E7 E10:E18 G19 D21:E24 D19:E19 E20 G20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -3609,7 +3390,7 @@
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -3632,7 +3413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -3656,7 +3437,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -3680,7 +3461,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -3705,7 +3486,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -3730,7 +3511,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -3755,7 +3536,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -3780,7 +3561,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -3805,7 +3586,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -3829,7 +3610,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -3854,7 +3635,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -3879,7 +3660,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -3904,7 +3685,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -3929,7 +3710,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -3954,7 +3735,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -3979,7 +3760,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4004,7 +3785,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -4029,7 +3810,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -4054,7 +3835,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -4079,7 +3860,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -4104,7 +3885,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
@@ -4129,7 +3910,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -4154,7 +3935,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
@@ -4179,7 +3960,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -4204,7 +3985,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -4229,7 +4010,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="9" t="str">
         <f>A2</f>
         <v>Admin Module</v>
@@ -4256,7 +4037,7 @@
         <v>Admin Module</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
@@ -4280,7 +4061,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -4304,7 +4085,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
@@ -4329,7 +4110,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -4354,7 +4135,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -4379,7 +4160,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -4404,7 +4185,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -4429,7 +4210,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
@@ -4453,7 +4234,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
@@ -4478,7 +4259,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
@@ -4503,7 +4284,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="5" t="s">
         <v>67</v>
       </c>
@@ -4528,7 +4309,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="5" t="s">
         <v>27</v>
       </c>
@@ -4553,7 +4334,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="5" t="s">
         <v>28</v>
       </c>
@@ -4578,7 +4359,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="5" t="s">
         <v>29</v>
       </c>
@@ -4603,7 +4384,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>110</v>
       </c>
@@ -4628,7 +4409,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>70</v>
       </c>
@@ -4653,7 +4434,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>110</v>
       </c>
@@ -4678,7 +4459,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>101</v>
       </c>
@@ -4703,7 +4484,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="14" t="s">
         <v>104</v>
       </c>
@@ -4728,7 +4509,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
@@ -4753,7 +4534,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>107</v>
       </c>
@@ -4778,7 +4559,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -4803,7 +4584,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>117</v>
       </c>
@@ -4828,7 +4609,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
@@ -4853,7 +4634,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>109</v>
       </c>
@@ -4878,7 +4659,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>70</v>
       </c>
@@ -4903,7 +4684,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -4928,7 +4709,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
@@ -4953,7 +4734,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="5" t="s">
         <v>82</v>
       </c>
@@ -4978,7 +4759,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>76</v>
       </c>
@@ -5003,7 +4784,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
@@ -5028,7 +4809,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>78</v>
       </c>
@@ -5053,7 +4834,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="9" t="str">
         <f>A27</f>
         <v>Admin Module Add New User</v>
@@ -5080,7 +4861,7 @@
         <v>Admin Module Add New User</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
@@ -5104,7 +4885,7 @@
         <v>Kill All Process</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>83</v>
       </c>
@@ -5129,7 +4910,7 @@
         <v>Kill All Process</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>83</v>
       </c>
@@ -5154,7 +4935,7 @@
         <v>Kill All Process</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="9" t="str">
         <f>A60</f>
         <v>Kill All Process</v>
@@ -5184,85 +4965,85 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C8">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C40">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C33">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C49">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="4" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
